--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\picol\Google Drive\Projects\OpenClassRooms\P4_CHIRIGUT_Andrei\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\picol\Google Drive\Projects\OpenClassRooms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10452BDF-0420-47DF-A2A7-A9EEC9439517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493315F8-4EE1-4BAC-B90A-01743C261976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>Catégorie</t>
   </si>
@@ -45,13 +45,7 @@
     <t>Référence</t>
   </si>
   <si>
-    <t>SEO</t>
-  </si>
-  <si>
     <t>Description text is empty</t>
-  </si>
-  <si>
-    <t>Format your HTML in a way that enables crawlers to better understand your app’s content.</t>
   </si>
   <si>
     <t xml:space="preserve">The &lt;meta name="description"&gt; element provides a summary of a page's content that search engines include in search results. A high-quality, unique meta description makes your page appear more relevant and can increase your search traffic.
@@ -79,26 +73,6 @@
   </si>
   <si>
     <t>https://web.dev/font-size/?utm_source=lighthouse&amp;utm_medium=devtools</t>
-  </si>
-  <si>
-    <t>Tap targets are not sized appropriately</t>
-  </si>
-  <si>
-    <t>Interactive elements like buttons and links should be large enough (48x48px), and have enough space around them, to be easy enough to tap without overlapping onto other elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase the size of tap targets that are too small. Tap targets that are 48 px by 48 px never fail the audit. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you have elements that shouldn't appear any bigger (for example, icons), try increasing the padding property.
-Increase the spacing between tap targets that are too close together using properties like margin. There should be at least 8 px between tap targets.
-</t>
-  </si>
-  <si>
-    <t>https://web.dev/tap-targets/?utm_source=lighthouse&amp;utm_medium=devtools</t>
-  </si>
-  <si>
-    <t>Accesibility</t>
   </si>
   <si>
     <t>Background and foreground colors do not have a sufficient contrast ratio.</t>
@@ -173,54 +147,103 @@
     <t>https://web.dev/heading-order/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
   <si>
+    <t>Serve images in next-gen formats</t>
+  </si>
+  <si>
+    <t>Image formats like WebP and AVIF often provide better compression than PNG or JPEG, which means faster downloads and less data consumption</t>
+  </si>
+  <si>
+    <t>Efficiently encode images</t>
+  </si>
+  <si>
+    <t>Optimized images load faster and consume less cellular data</t>
+  </si>
+  <si>
+    <t>Format your HTML in a way that enables crawlers to better understand your app’s content.
+Add Title - not done</t>
+  </si>
+  <si>
+    <t>Redo mobile version</t>
+  </si>
+  <si>
+    <t>changed image size for mobile</t>
+  </si>
+  <si>
+    <t>change to CDN</t>
+  </si>
+  <si>
+    <t>Delete hidden text</t>
+  </si>
+  <si>
+    <t>done
+10</t>
+  </si>
+  <si>
+    <t>Footer links are broken</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Broken links are not only bad for user experience but can also be harmful to your site's loving relationship with Google, i.e. your SEO. Avoid linking out to broken content, and also avoid having pages on your site that are broken</t>
+  </si>
+  <si>
+    <t>If the context of the content can stand alone without the link, and it was not a citation, then simply remove the broken link.
+If the link is needed, check what the linking anchor text included. It can provide contextual clues to what used to live on that page</t>
+  </si>
+  <si>
+    <t>If the link is empty :
+&lt;a href="#"&gt;vraiseofiable.com&lt;/a&gt;
+or the page doen't exist , remove the link</t>
+  </si>
+  <si>
+    <t>https://www.investisdigital.com/blog/link-building/how-broken-links-hurt-your-seo</t>
+  </si>
+  <si>
+    <t>If the JavaScript is render-blocking, the browser must download, parse, compile, and evaluate the script before it can proceed with all of the other work that's needed for rendering the page.</t>
+  </si>
+  <si>
+    <t>Remove unused JavaScript</t>
+  </si>
+  <si>
+    <t>https://web.dev/unused-javascript/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>Detect unused JavaScript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large network payloads are highly correlated with long load times. They also cost users money; for example, users may have to pay for more cellular data. So, reducing the total size of your page's network requests is good for your users' experience on your site and their wallets.
+</t>
+  </si>
+  <si>
+    <t>Avoid enormous network payloads</t>
+  </si>
+  <si>
+    <t>Hiding text or links in your content to manipulate Google's search rankings can be seen as deceptive and is a violation of Google's Webmaster Guidelines</t>
+  </si>
+  <si>
+    <t>https://www.seoblog.com/hide-text-seo-friendly/</t>
+  </si>
+  <si>
+    <t>https://www.cloudflare.com/en-gb/learning/cdn/what-is-a-cdn/</t>
+  </si>
+  <si>
+    <t>To ensure your page content is valid look for hidden text in your code editor or inspector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accesibility
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance
+</t>
+  </si>
+  <si>
     <t>Performance</t>
   </si>
   <si>
-    <t>Eliminate render-blocking resources</t>
-  </si>
-  <si>
-    <t>Resources are blocking the first paint of your page. Consider delivering critical JS/CSS inline and deferring all non-critical JS/styles(script tag at bottom of page)</t>
-  </si>
-  <si>
-    <t>The first step to reducing the impact of render-blocking resources, is to identify what's critical and what's not. Use the Coverage tab in Chrome DevTools to identify non-critical CSS and JS</t>
-  </si>
-  <si>
-    <t>Once you've identified critical code, move that code from the render-blocking URL to an inline script tag in your HTML page. When the page loads, it will have what it needs to handle the page's core functionality.(can also add later a link to a correct html page code)</t>
-  </si>
-  <si>
-    <t>https://web.dev/render-blocking-resources/?utm_source=lighthouse&amp;utm_medium=devtools</t>
-  </si>
-  <si>
-    <t>Ensure text remains visible during webfont load</t>
-  </si>
-  <si>
-    <t>Leverage the font-display CSS feature to ensure text is user-visible while webfonts are loading</t>
-  </si>
-  <si>
-    <t>Image elements do not have explicit width and height</t>
-  </si>
-  <si>
-    <t>Set an explicit width and height on image elements to reduce layout shifts and improve CLS(Cumulative Layout Shift)</t>
-  </si>
-  <si>
-    <t>Serve images in next-gen formats</t>
-  </si>
-  <si>
-    <t>Image formats like WebP and AVIF often provide better compression than PNG or JPEG, which means faster downloads and less data consumption</t>
-  </si>
-  <si>
-    <t>Efficiently encode images</t>
-  </si>
-  <si>
-    <t>Optimized images load faster and consume less cellular data</t>
-  </si>
-  <si>
-    <t>SEO
-Done</t>
-  </si>
-  <si>
-    <t>Accesibility 
-Done</t>
+    <t>Best Practices</t>
   </si>
 </sst>
 </file>
@@ -269,13 +292,15 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF424242"/>
-      <name val="Arial"/>
+      <color rgb="FF191919"/>
+      <name val="Quattrocento Sans"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <color rgb="FF191919"/>
-      <name val="Quattrocento Sans"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -308,26 +333,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -338,22 +355,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -569,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -624,236 +648,275 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:26" s="10" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="10" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="10" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="10" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:26" ht="63" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>16</v>
-      </c>
+    <row r="12" spans="1:26" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="4"/>
     </row>
-    <row r="4" spans="1:26" ht="110.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>21</v>
-      </c>
+    <row r="13" spans="1:26" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
-    <row r="5" spans="1:26" ht="75" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>27</v>
-      </c>
+    <row r="14" spans="1:26" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
-    <row r="6" spans="1:26" ht="75" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
+    <row r="15" spans="1:26" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="120" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>37</v>
-      </c>
+    <row r="16" spans="1:26" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7"/>
+      <c r="E16" s="9"/>
     </row>
-    <row r="8" spans="1:26" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
+    <row r="17" spans="1:5" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="5"/>
+      <c r="E17" s="9"/>
     </row>
-    <row r="9" spans="1:26" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1822,14 +1885,16 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F7" r:id="rId6" location="label-buttons-and-links" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{99811A15-42AD-469E-AFD6-9570213EF4B8}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{6258AA3A-58B2-4CF0-88C3-2E0354963AF5}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{8FBDA0AB-3A7C-4249-B6A5-72C808AB0524}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{DE766AEC-1B0B-4455-8B03-D2024D698281}"/>
+    <hyperlink ref="F6" r:id="rId5" location="label-buttons-and-links" xr:uid="{1C37F8AE-4A21-4E09-B6EF-A041D9A8C049}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{4B594198-BF5B-4E52-924F-40C708605EE3}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{856D2D74-E911-41C7-90FF-6470B15934B8}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{ECA40C25-4415-4774-ABD7-51379CC9EE15}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{64165A1C-34A6-4C1A-A1E2-B73684D2D221}"/>
+    <hyperlink ref="F10" r:id="rId10" xr:uid="{3E4B93B1-2F8C-4C23-B173-0E0A748C1462}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
